--- a/Data/Export/Common/TerrainType_地形类型.xlsx
+++ b/Data/Export/Common/TerrainType_地形类型.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr updateLinks="always" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sango_infinity\Data\Export\Common\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9583A11C-3414-4A64-89A9-F30305B8BABB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C255DF48-A949-49CE-B415-E257945614AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="923" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -379,13 +379,6 @@
   </si>
   <si>
     <t>4</t>
-  </si>
-  <si>
-    <t>4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -517,10 +510,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>18</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -534,6 +523,18 @@
   </si>
   <si>
     <t>水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1027,7 +1028,10 @@
   <dimension ref="A1:Z46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+      <pane xSplit="3" ySplit="4" topLeftCell="N5" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomRight" activeCell="B25" sqref="B5:B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1063,13 +1067,13 @@
         <v>14</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="H1" s="9" t="s">
         <v>15</v>
@@ -1087,7 +1091,7 @@
         <v>25</v>
       </c>
       <c r="M1" s="7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="N1" s="7" t="s">
         <v>27</v>
@@ -1096,7 +1100,7 @@
         <v>56</v>
       </c>
       <c r="P1" s="13" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="Q1" s="9" t="s">
         <v>65</v>
@@ -1153,13 +1157,13 @@
         <v>13</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H3" s="8" t="s">
         <v>60</v>
@@ -1177,7 +1181,7 @@
         <v>18</v>
       </c>
       <c r="M3" s="8" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="N3" s="8" t="s">
         <v>28</v>
@@ -1262,16 +1266,16 @@
         <v>64</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>62</v>
@@ -1318,16 +1322,16 @@
         <v>29</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>62</v>
@@ -1354,7 +1358,7 @@
         <v>2</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="Q6" s="2" t="s">
         <v>69</v>
@@ -1373,16 +1377,16 @@
         <v>30</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>62</v>
@@ -1409,7 +1413,7 @@
         <v>2</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="Q7" s="2" t="s">
         <v>70</v>
@@ -1428,16 +1432,16 @@
         <v>31</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>61</v>
@@ -1464,7 +1468,7 @@
         <v>2</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="Q8" s="2" t="s">
         <v>81</v>
@@ -1483,16 +1487,16 @@
         <v>10</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>61</v>
@@ -1519,7 +1523,7 @@
         <v>2</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>100</v>
+        <v>134</v>
       </c>
       <c r="Q9" s="2" t="s">
         <v>71</v>
@@ -1538,16 +1542,16 @@
         <v>32</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>61</v>
@@ -1574,7 +1578,7 @@
         <v>2</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="Q10" s="2" t="s">
         <v>72</v>
@@ -1593,16 +1597,16 @@
         <v>33</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>61</v>
@@ -1629,7 +1633,7 @@
         <v>2</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="Q11" s="2" t="s">
         <v>73</v>
@@ -1648,16 +1652,16 @@
         <v>34</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F12" s="16" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G12" s="16" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H12" s="16" t="s">
         <v>61</v>
@@ -1684,7 +1688,7 @@
         <v>2</v>
       </c>
       <c r="P12" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="Q12" s="16" t="s">
         <v>88</v>
@@ -1703,16 +1707,16 @@
         <v>35</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F13" s="16" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G13" s="16" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H13" s="16" t="s">
         <v>61</v>
@@ -1739,7 +1743,7 @@
         <v>2</v>
       </c>
       <c r="P13" s="16" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="Q13" s="16" t="s">
         <v>74</v>
@@ -1758,16 +1762,16 @@
         <v>36</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F14" s="16" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G14" s="16" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H14" s="16" t="s">
         <v>61</v>
@@ -1794,7 +1798,7 @@
         <v>2</v>
       </c>
       <c r="P14" s="16" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="Q14" s="16" t="s">
         <v>75</v>
@@ -1813,16 +1817,16 @@
         <v>11</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>61</v>
@@ -1849,7 +1853,7 @@
         <v>2</v>
       </c>
       <c r="P15" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="Q15" s="2" t="s">
         <v>76</v>
@@ -1868,16 +1872,16 @@
         <v>37</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>61</v>
@@ -1904,7 +1908,7 @@
         <v>2</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>132</v>
+        <v>96</v>
       </c>
       <c r="Q16" s="2" t="s">
         <v>82</v>
@@ -1923,16 +1927,16 @@
         <v>12</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>61</v>
@@ -1959,7 +1963,7 @@
         <v>2</v>
       </c>
       <c r="P17" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="Q17" s="2" t="s">
         <v>83</v>
@@ -1978,16 +1982,16 @@
         <v>38</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>61</v>
@@ -2014,7 +2018,7 @@
         <v>2</v>
       </c>
       <c r="P18" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="Q18" s="2" t="s">
         <v>77</v>
@@ -2033,16 +2037,16 @@
         <v>39</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>61</v>
@@ -2069,7 +2073,7 @@
         <v>2</v>
       </c>
       <c r="P19" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="Q19" s="2" t="s">
         <v>84</v>
@@ -2088,16 +2092,16 @@
         <v>40</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>61</v>
@@ -2124,7 +2128,7 @@
         <v>2</v>
       </c>
       <c r="P20" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="Q20" s="2" t="s">
         <v>87</v>
@@ -2143,16 +2147,16 @@
         <v>41</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>61</v>
@@ -2179,7 +2183,7 @@
         <v>2</v>
       </c>
       <c r="P21" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="Q21" s="2" t="s">
         <v>86</v>
@@ -2198,16 +2202,16 @@
         <v>42</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>61</v>
@@ -2234,7 +2238,7 @@
         <v>2</v>
       </c>
       <c r="P22" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="Q22" s="2" t="s">
         <v>78</v>
@@ -2247,22 +2251,22 @@
     </row>
     <row r="23" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B23" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>63</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>61</v>
@@ -2289,7 +2293,7 @@
         <v>2</v>
       </c>
       <c r="P23" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Q23" s="2" t="s">
         <v>80</v>
@@ -2302,22 +2306,22 @@
     </row>
     <row r="24" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B24" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>43</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>61</v>
@@ -2344,7 +2348,7 @@
         <v>2</v>
       </c>
       <c r="P24" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="Q24" s="2" t="s">
         <v>79</v>
@@ -2363,16 +2367,16 @@
         <v>44</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H25" s="2" t="s">
         <v>61</v>
@@ -2399,7 +2403,7 @@
         <v>2</v>
       </c>
       <c r="P25" s="2" t="s">
-        <v>96</v>
+        <v>136</v>
       </c>
       <c r="Q25" s="2" t="s">
         <v>85</v>
@@ -2418,16 +2422,16 @@
         <v>45</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H26" s="2" t="s">
         <v>61</v>
@@ -2473,16 +2477,16 @@
         <v>46</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H27" s="2" t="s">
         <v>61</v>
@@ -2528,16 +2532,16 @@
         <v>47</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H28" s="2" t="s">
         <v>61</v>
@@ -2583,16 +2587,16 @@
         <v>48</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H29" s="2" t="s">
         <v>61</v>
@@ -2638,16 +2642,16 @@
         <v>49</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H30" s="2" t="s">
         <v>61</v>
@@ -2693,16 +2697,16 @@
         <v>50</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H31" s="2" t="s">
         <v>61</v>
@@ -2748,16 +2752,16 @@
         <v>51</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H32" s="2" t="s">
         <v>61</v>
@@ -2803,16 +2807,16 @@
         <v>52</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H33" s="2" t="s">
         <v>61</v>
@@ -2858,16 +2862,16 @@
         <v>53</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H34" s="2" t="s">
         <v>61</v>
@@ -2913,16 +2917,16 @@
         <v>54</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H35" s="2" t="s">
         <v>61</v>
@@ -2968,16 +2972,16 @@
         <v>55</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H36" s="2" t="s">
         <v>61</v>

--- a/Data/Export/Common/TerrainType_地形类型.xlsx
+++ b/Data/Export/Common/TerrainType_地形类型.xlsx
@@ -5,12 +5,12 @@
   <workbookPr updateLinks="always" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sango_infinity\Data\Export\Common\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\sango_infinity\Data\Export\Common\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C255DF48-A949-49CE-B415-E257945614AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79D2D2D9-D29F-414B-B8BC-8C880E0CAF15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="923" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" tabRatio="923" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TerrainTypes" sheetId="36" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="144">
   <si>
     <t>0</t>
   </si>
@@ -535,6 +535,34 @@
   </si>
   <si>
     <t>7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fireRate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伙计成功率加成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i8</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1025,37 +1053,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B0F1D98-4B0B-4096-90A4-E28636B1D41A}">
-  <dimension ref="A1:Z46"/>
+  <dimension ref="A1:AA46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <pane xSplit="3" ySplit="4" topLeftCell="N5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="4" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="B25" sqref="B5:B25"/>
+      <selection pane="bottomRight" activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="19.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="11.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13" style="4" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="22.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.25" style="2" customWidth="1"/>
-    <col min="19" max="16384" width="9" style="2"/>
+    <col min="6" max="6" width="15.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="19.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.77734375" style="2" customWidth="1"/>
+    <col min="12" max="12" width="11.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="11.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13" style="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="22.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.21875" style="2" customWidth="1"/>
+    <col min="20" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="10" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:27" s="10" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12"/>
       <c r="B1" s="9" t="s">
         <v>4</v>
@@ -1084,38 +1113,41 @@
       <c r="J1" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="L1" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="M1" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="N1" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="O1" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="O1" s="13" t="s">
+      <c r="P1" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="P1" s="13" t="s">
+      <c r="Q1" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="Q1" s="9" t="s">
+      <c r="R1" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="R1" s="7"/>
-      <c r="S1" s="9"/>
-      <c r="T1" s="7"/>
-      <c r="U1" s="9"/>
-      <c r="V1" s="7"/>
-      <c r="W1" s="9"/>
-      <c r="X1" s="7"/>
-      <c r="Y1" s="9"/>
-      <c r="Z1" s="7"/>
-    </row>
-    <row r="2" spans="1:26" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S1" s="7"/>
+      <c r="T1" s="9"/>
+      <c r="U1" s="7"/>
+      <c r="V1" s="9"/>
+      <c r="W1" s="7"/>
+      <c r="X1" s="9"/>
+      <c r="Y1" s="7"/>
+      <c r="Z1" s="9"/>
+      <c r="AA1" s="7"/>
+    </row>
+    <row r="2" spans="1:27" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -1132,7 +1164,7 @@
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
-      <c r="Q2" s="2"/>
+      <c r="O2" s="2"/>
       <c r="R2" s="2"/>
       <c r="S2" s="2"/>
       <c r="T2" s="2"/>
@@ -1142,8 +1174,9 @@
       <c r="X2" s="2"/>
       <c r="Y2" s="2"/>
       <c r="Z2" s="2"/>
-    </row>
-    <row r="3" spans="1:26" s="5" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AA2" s="2"/>
+    </row>
+    <row r="3" spans="1:27" s="5" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>9</v>
       </c>
@@ -1175,27 +1208,29 @@
         <v>17</v>
       </c>
       <c r="K3" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="L3" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="L3" s="8" t="s">
+      <c r="M3" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="M3" s="8" t="s">
+      <c r="N3" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="N3" s="8" t="s">
+      <c r="O3" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="O3" s="8" t="s">
+      <c r="P3" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="P3" s="8" t="s">
+      <c r="Q3" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="Q3" s="8" t="s">
+      <c r="R3" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="R3" s="8"/>
       <c r="S3" s="8"/>
       <c r="T3" s="8"/>
       <c r="U3" s="8"/>
@@ -1204,8 +1239,9 @@
       <c r="X3" s="8"/>
       <c r="Y3" s="8"/>
       <c r="Z3" s="8"/>
-    </row>
-    <row r="4" spans="1:26" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AA3" s="8"/>
+    </row>
+    <row r="4" spans="1:27" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>9</v>
       </c>
@@ -1237,7 +1273,7 @@
         <v>19</v>
       </c>
       <c r="K4" s="11" t="s">
-        <v>26</v>
+        <v>143</v>
       </c>
       <c r="L4" s="11" t="s">
         <v>26</v>
@@ -1248,17 +1284,20 @@
       <c r="N4" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="O4" s="14" t="s">
+      <c r="O4" s="11" t="s">
         <v>26</v>
       </c>
       <c r="P4" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q4" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="Q4" s="11" t="s">
+      <c r="R4" s="11" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
@@ -1286,34 +1325,37 @@
       <c r="J5" s="15">
         <v>1</v>
       </c>
-      <c r="K5" s="2" t="s">
-        <v>2</v>
+      <c r="K5" s="15" t="s">
+        <v>1</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>2</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N5" s="2" t="s">
         <v>3</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q5" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="Q5" s="2" t="s">
+      <c r="R5" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="S5" s="4"/>
-      <c r="U5" s="4"/>
+      <c r="T5" s="4"/>
       <c r="V5" s="4"/>
       <c r="W5" s="4"/>
-      <c r="Y5" s="4"/>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="X5" s="4"/>
+      <c r="Z5" s="4"/>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="2">
         <v>1</v>
@@ -1342,34 +1384,37 @@
       <c r="J6" s="15">
         <v>1</v>
       </c>
-      <c r="K6" s="2" t="s">
-        <v>2</v>
+      <c r="K6" s="15" t="s">
+        <v>139</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>2</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O6" s="2" t="s">
         <v>2</v>
       </c>
       <c r="P6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q6" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="Q6" s="2" t="s">
+      <c r="R6" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="S6" s="4"/>
-      <c r="U6" s="4"/>
+      <c r="T6" s="4"/>
       <c r="V6" s="4"/>
       <c r="W6" s="4"/>
-      <c r="Y6" s="4"/>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="X6" s="4"/>
+      <c r="Z6" s="4"/>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B7" s="2">
         <v>2</v>
       </c>
@@ -1397,34 +1442,37 @@
       <c r="J7" s="15">
         <v>1</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>2</v>
+      <c r="K7" s="15" t="s">
+        <v>139</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>2</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O7" s="2" t="s">
         <v>2</v>
       </c>
       <c r="P7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q7" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="Q7" s="2" t="s">
+      <c r="R7" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="S7" s="4"/>
-      <c r="U7" s="4"/>
+      <c r="T7" s="4"/>
       <c r="V7" s="4"/>
       <c r="W7" s="4"/>
-      <c r="Y7" s="4"/>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="X7" s="4"/>
+      <c r="Z7" s="4"/>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B8" s="2">
         <v>3</v>
       </c>
@@ -1452,34 +1500,37 @@
       <c r="J8" s="15">
         <v>1</v>
       </c>
-      <c r="K8" s="2" t="s">
-        <v>2</v>
+      <c r="K8" s="15" t="s">
+        <v>139</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>2</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O8" s="2" t="s">
         <v>2</v>
       </c>
       <c r="P8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q8" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="Q8" s="2" t="s">
+      <c r="R8" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="S8" s="4"/>
-      <c r="U8" s="4"/>
+      <c r="T8" s="4"/>
       <c r="V8" s="4"/>
       <c r="W8" s="4"/>
-      <c r="Y8" s="4"/>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="X8" s="4"/>
+      <c r="Z8" s="4"/>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B9" s="2">
         <v>4</v>
       </c>
@@ -1507,34 +1558,37 @@
       <c r="J9" s="15">
         <v>1</v>
       </c>
-      <c r="K9" s="2" t="s">
-        <v>2</v>
+      <c r="K9" s="15" t="s">
+        <v>0</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>2</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O9" s="2" t="s">
         <v>2</v>
       </c>
       <c r="P9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q9" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="Q9" s="2" t="s">
+      <c r="R9" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="S9" s="4"/>
-      <c r="U9" s="4"/>
+      <c r="T9" s="4"/>
       <c r="V9" s="4"/>
       <c r="W9" s="4"/>
-      <c r="Y9" s="4"/>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="X9" s="4"/>
+      <c r="Z9" s="4"/>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B10" s="2">
         <v>5</v>
       </c>
@@ -1562,34 +1616,37 @@
       <c r="J10" s="15">
         <v>1</v>
       </c>
-      <c r="K10" s="2" t="s">
-        <v>2</v>
+      <c r="K10" s="15" t="s">
+        <v>98</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>2</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O10" s="2" t="s">
         <v>2</v>
       </c>
       <c r="P10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q10" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="Q10" s="2" t="s">
+      <c r="R10" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="S10" s="4"/>
-      <c r="U10" s="4"/>
+      <c r="T10" s="4"/>
       <c r="V10" s="4"/>
       <c r="W10" s="4"/>
-      <c r="Y10" s="4"/>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="X10" s="4"/>
+      <c r="Z10" s="4"/>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B11" s="2">
         <v>6</v>
       </c>
@@ -1617,34 +1674,37 @@
       <c r="J11" s="15">
         <v>1</v>
       </c>
-      <c r="K11" s="2" t="s">
-        <v>2</v>
+      <c r="K11" s="15" t="s">
+        <v>140</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>2</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O11" s="2" t="s">
         <v>2</v>
       </c>
       <c r="P11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q11" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="Q11" s="2" t="s">
+      <c r="R11" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="S11" s="4"/>
-      <c r="U11" s="4"/>
+      <c r="T11" s="4"/>
       <c r="V11" s="4"/>
       <c r="W11" s="4"/>
-      <c r="Y11" s="4"/>
-    </row>
-    <row r="12" spans="1:26" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="X11" s="4"/>
+      <c r="Z11" s="4"/>
+    </row>
+    <row r="12" spans="1:27" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="16">
         <v>7</v>
       </c>
@@ -1672,8 +1732,8 @@
       <c r="J12" s="17">
         <v>1</v>
       </c>
-      <c r="K12" s="16" t="s">
-        <v>2</v>
+      <c r="K12" s="15" t="s">
+        <v>0</v>
       </c>
       <c r="L12" s="16" t="s">
         <v>2</v>
@@ -1682,24 +1742,27 @@
         <v>2</v>
       </c>
       <c r="N12" s="16" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O12" s="16" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P12" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q12" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="Q12" s="16" t="s">
+      <c r="R12" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="S12" s="18"/>
-      <c r="U12" s="18"/>
+      <c r="T12" s="18"/>
       <c r="V12" s="18"/>
       <c r="W12" s="18"/>
-      <c r="Y12" s="18"/>
-    </row>
-    <row r="13" spans="1:26" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="X12" s="18"/>
+      <c r="Z12" s="18"/>
+    </row>
+    <row r="13" spans="1:27" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B13" s="16">
         <v>8</v>
       </c>
@@ -1727,8 +1790,8 @@
       <c r="J13" s="17">
         <v>1</v>
       </c>
-      <c r="K13" s="16" t="s">
-        <v>2</v>
+      <c r="K13" s="15" t="s">
+        <v>0</v>
       </c>
       <c r="L13" s="16" t="s">
         <v>2</v>
@@ -1743,18 +1806,21 @@
         <v>2</v>
       </c>
       <c r="P13" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q13" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="Q13" s="16" t="s">
+      <c r="R13" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="S13" s="18"/>
-      <c r="U13" s="18"/>
+      <c r="T13" s="18"/>
       <c r="V13" s="18"/>
       <c r="W13" s="18"/>
-      <c r="Y13" s="18"/>
-    </row>
-    <row r="14" spans="1:26" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="X13" s="18"/>
+      <c r="Z13" s="18"/>
+    </row>
+    <row r="14" spans="1:27" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14" s="16">
         <v>9</v>
       </c>
@@ -1782,8 +1848,8 @@
       <c r="J14" s="17">
         <v>1</v>
       </c>
-      <c r="K14" s="16" t="s">
-        <v>2</v>
+      <c r="K14" s="15" t="s">
+        <v>0</v>
       </c>
       <c r="L14" s="16" t="s">
         <v>2</v>
@@ -1798,18 +1864,21 @@
         <v>2</v>
       </c>
       <c r="P14" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q14" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="Q14" s="16" t="s">
+      <c r="R14" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="S14" s="18"/>
-      <c r="U14" s="18"/>
+      <c r="T14" s="18"/>
       <c r="V14" s="18"/>
       <c r="W14" s="18"/>
-      <c r="Y14" s="18"/>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="X14" s="18"/>
+      <c r="Z14" s="18"/>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B15" s="2">
         <v>10</v>
       </c>
@@ -1837,34 +1906,37 @@
       <c r="J15" s="15">
         <v>1</v>
       </c>
-      <c r="K15" s="2" t="s">
-        <v>2</v>
+      <c r="K15" s="15" t="s">
+        <v>141</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>2</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O15" s="2" t="s">
         <v>2</v>
       </c>
       <c r="P15" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q15" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="Q15" s="2" t="s">
+      <c r="R15" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="S15" s="4"/>
-      <c r="U15" s="4"/>
+      <c r="T15" s="4"/>
       <c r="V15" s="4"/>
       <c r="W15" s="4"/>
-      <c r="Y15" s="4"/>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="X15" s="4"/>
+      <c r="Z15" s="4"/>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B16" s="2">
         <v>11</v>
       </c>
@@ -1892,34 +1964,37 @@
       <c r="J16" s="15">
         <v>1</v>
       </c>
-      <c r="K16" s="2" t="s">
-        <v>2</v>
+      <c r="K16" s="15" t="s">
+        <v>142</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>2</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O16" s="2" t="s">
         <v>2</v>
       </c>
       <c r="P16" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q16" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="Q16" s="2" t="s">
+      <c r="R16" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="S16" s="4"/>
-      <c r="U16" s="4"/>
+      <c r="T16" s="4"/>
       <c r="V16" s="4"/>
       <c r="W16" s="4"/>
-      <c r="Y16" s="4"/>
-    </row>
-    <row r="17" spans="2:25" x14ac:dyDescent="0.15">
+      <c r="X16" s="4"/>
+      <c r="Z16" s="4"/>
+    </row>
+    <row r="17" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B17" s="2">
         <v>12</v>
       </c>
@@ -1947,34 +2022,37 @@
       <c r="J17" s="15">
         <v>1</v>
       </c>
-      <c r="K17" s="2" t="s">
-        <v>2</v>
+      <c r="K17" s="15" t="s">
+        <v>136</v>
       </c>
       <c r="L17" s="2" t="s">
         <v>2</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O17" s="2" t="s">
         <v>2</v>
       </c>
       <c r="P17" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q17" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="Q17" s="2" t="s">
+      <c r="R17" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="S17" s="4"/>
-      <c r="U17" s="4"/>
+      <c r="T17" s="4"/>
       <c r="V17" s="4"/>
       <c r="W17" s="4"/>
-      <c r="Y17" s="4"/>
-    </row>
-    <row r="18" spans="2:25" x14ac:dyDescent="0.15">
+      <c r="X17" s="4"/>
+      <c r="Z17" s="4"/>
+    </row>
+    <row r="18" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B18" s="2">
         <v>13</v>
       </c>
@@ -2002,34 +2080,37 @@
       <c r="J18" s="15">
         <v>1</v>
       </c>
-      <c r="K18" s="2" t="s">
-        <v>2</v>
+      <c r="K18" s="15" t="s">
+        <v>117</v>
       </c>
       <c r="L18" s="2" t="s">
         <v>2</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O18" s="2" t="s">
         <v>2</v>
       </c>
       <c r="P18" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q18" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="Q18" s="2" t="s">
+      <c r="R18" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="S18" s="4"/>
-      <c r="U18" s="4"/>
+      <c r="T18" s="4"/>
       <c r="V18" s="4"/>
       <c r="W18" s="4"/>
-      <c r="Y18" s="4"/>
-    </row>
-    <row r="19" spans="2:25" x14ac:dyDescent="0.15">
+      <c r="X18" s="4"/>
+      <c r="Z18" s="4"/>
+    </row>
+    <row r="19" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B19" s="2">
         <v>14</v>
       </c>
@@ -2057,34 +2138,37 @@
       <c r="J19" s="15">
         <v>1</v>
       </c>
-      <c r="K19" s="2" t="s">
-        <v>2</v>
+      <c r="K19" s="15" t="s">
+        <v>98</v>
       </c>
       <c r="L19" s="2" t="s">
         <v>2</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O19" s="2" t="s">
         <v>2</v>
       </c>
       <c r="P19" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q19" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="Q19" s="2" t="s">
+      <c r="R19" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="S19" s="4"/>
-      <c r="U19" s="4"/>
+      <c r="T19" s="4"/>
       <c r="V19" s="4"/>
       <c r="W19" s="4"/>
-      <c r="Y19" s="4"/>
-    </row>
-    <row r="20" spans="2:25" x14ac:dyDescent="0.15">
+      <c r="X19" s="4"/>
+      <c r="Z19" s="4"/>
+    </row>
+    <row r="20" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B20" s="2">
         <v>15</v>
       </c>
@@ -2112,34 +2196,37 @@
       <c r="J20" s="15">
         <v>1</v>
       </c>
-      <c r="K20" s="2" t="s">
-        <v>2</v>
+      <c r="K20" s="15" t="s">
+        <v>0</v>
       </c>
       <c r="L20" s="2" t="s">
         <v>2</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N20" s="2" t="s">
         <v>3</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P20" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q20" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="Q20" s="2" t="s">
+      <c r="R20" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="S20" s="4"/>
-      <c r="U20" s="4"/>
+      <c r="T20" s="4"/>
       <c r="V20" s="4"/>
       <c r="W20" s="4"/>
-      <c r="Y20" s="4"/>
-    </row>
-    <row r="21" spans="2:25" x14ac:dyDescent="0.15">
+      <c r="X20" s="4"/>
+      <c r="Z20" s="4"/>
+    </row>
+    <row r="21" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B21" s="2">
         <v>16</v>
       </c>
@@ -2167,34 +2254,37 @@
       <c r="J21" s="15">
         <v>1</v>
       </c>
-      <c r="K21" s="2" t="s">
-        <v>2</v>
+      <c r="K21" s="15" t="s">
+        <v>0</v>
       </c>
       <c r="L21" s="2" t="s">
         <v>2</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N21" s="2" t="s">
         <v>3</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P21" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q21" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="Q21" s="2" t="s">
+      <c r="R21" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="S21" s="4"/>
-      <c r="U21" s="4"/>
+      <c r="T21" s="4"/>
       <c r="V21" s="4"/>
       <c r="W21" s="4"/>
-      <c r="Y21" s="4"/>
-    </row>
-    <row r="22" spans="2:25" x14ac:dyDescent="0.15">
+      <c r="X21" s="4"/>
+      <c r="Z21" s="4"/>
+    </row>
+    <row r="22" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B22" s="2">
         <v>17</v>
       </c>
@@ -2222,8 +2312,8 @@
       <c r="J22" s="15">
         <v>1</v>
       </c>
-      <c r="K22" s="2" t="s">
-        <v>3</v>
+      <c r="K22" s="15" t="s">
+        <v>0</v>
       </c>
       <c r="L22" s="2" t="s">
         <v>3</v>
@@ -2232,24 +2322,27 @@
         <v>3</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O22" s="2" t="s">
         <v>2</v>
       </c>
       <c r="P22" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q22" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="Q22" s="2" t="s">
+      <c r="R22" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="S22" s="4"/>
-      <c r="U22" s="4"/>
+      <c r="T22" s="4"/>
       <c r="V22" s="4"/>
       <c r="W22" s="4"/>
-      <c r="Y22" s="4"/>
-    </row>
-    <row r="23" spans="2:25" x14ac:dyDescent="0.15">
+      <c r="X22" s="4"/>
+      <c r="Z22" s="4"/>
+    </row>
+    <row r="23" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B23" s="2" t="s">
         <v>130</v>
       </c>
@@ -2277,8 +2370,8 @@
       <c r="J23" s="15">
         <v>1</v>
       </c>
-      <c r="K23" s="2" t="s">
-        <v>3</v>
+      <c r="K23" s="15" t="s">
+        <v>0</v>
       </c>
       <c r="L23" s="2" t="s">
         <v>3</v>
@@ -2287,24 +2380,27 @@
         <v>3</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O23" s="2" t="s">
         <v>2</v>
       </c>
       <c r="P23" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q23" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="Q23" s="2" t="s">
+      <c r="R23" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="S23" s="4"/>
-      <c r="U23" s="4"/>
+      <c r="T23" s="4"/>
       <c r="V23" s="4"/>
       <c r="W23" s="4"/>
-      <c r="Y23" s="4"/>
-    </row>
-    <row r="24" spans="2:25" x14ac:dyDescent="0.15">
+      <c r="X23" s="4"/>
+      <c r="Z23" s="4"/>
+    </row>
+    <row r="24" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B24" s="2" t="s">
         <v>131</v>
       </c>
@@ -2332,8 +2428,8 @@
       <c r="J24" s="15">
         <v>1</v>
       </c>
-      <c r="K24" s="2" t="s">
-        <v>3</v>
+      <c r="K24" s="15" t="s">
+        <v>0</v>
       </c>
       <c r="L24" s="2" t="s">
         <v>3</v>
@@ -2342,24 +2438,27 @@
         <v>3</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O24" s="2" t="s">
         <v>2</v>
       </c>
       <c r="P24" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q24" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="Q24" s="2" t="s">
+      <c r="R24" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="S24" s="4"/>
-      <c r="U24" s="4"/>
+      <c r="T24" s="4"/>
       <c r="V24" s="4"/>
       <c r="W24" s="4"/>
-      <c r="Y24" s="4"/>
-    </row>
-    <row r="25" spans="2:25" x14ac:dyDescent="0.15">
+      <c r="X24" s="4"/>
+      <c r="Z24" s="4"/>
+    </row>
+    <row r="25" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B25" s="2">
         <v>20</v>
       </c>
@@ -2387,8 +2486,8 @@
       <c r="J25" s="15">
         <v>1</v>
       </c>
-      <c r="K25" s="2" t="s">
-        <v>3</v>
+      <c r="K25" s="15" t="s">
+        <v>98</v>
       </c>
       <c r="L25" s="2" t="s">
         <v>3</v>
@@ -2397,24 +2496,27 @@
         <v>3</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O25" s="2" t="s">
         <v>2</v>
       </c>
       <c r="P25" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q25" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="Q25" s="2" t="s">
+      <c r="R25" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="S25" s="4"/>
-      <c r="U25" s="4"/>
+      <c r="T25" s="4"/>
       <c r="V25" s="4"/>
       <c r="W25" s="4"/>
-      <c r="Y25" s="4"/>
-    </row>
-    <row r="26" spans="2:25" x14ac:dyDescent="0.15">
+      <c r="X25" s="4"/>
+      <c r="Z25" s="4"/>
+    </row>
+    <row r="26" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B26" s="2">
         <v>21</v>
       </c>
@@ -2442,8 +2544,8 @@
       <c r="J26" s="15">
         <v>1</v>
       </c>
-      <c r="K26" s="2" t="s">
-        <v>3</v>
+      <c r="K26" s="15" t="s">
+        <v>0</v>
       </c>
       <c r="L26" s="2" t="s">
         <v>3</v>
@@ -2455,21 +2557,24 @@
         <v>3</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P26" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q26" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="Q26" s="2" t="s">
+      <c r="R26" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="S26" s="4"/>
-      <c r="U26" s="4"/>
+      <c r="T26" s="4"/>
       <c r="V26" s="4"/>
       <c r="W26" s="4"/>
-      <c r="Y26" s="4"/>
-    </row>
-    <row r="27" spans="2:25" x14ac:dyDescent="0.15">
+      <c r="X26" s="4"/>
+      <c r="Z26" s="4"/>
+    </row>
+    <row r="27" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B27" s="2">
         <v>22</v>
       </c>
@@ -2497,8 +2602,8 @@
       <c r="J27" s="15">
         <v>1</v>
       </c>
-      <c r="K27" s="2" t="s">
-        <v>3</v>
+      <c r="K27" s="15" t="s">
+        <v>0</v>
       </c>
       <c r="L27" s="2" t="s">
         <v>3</v>
@@ -2510,21 +2615,24 @@
         <v>3</v>
       </c>
       <c r="O27" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P27" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q27" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="Q27" s="2" t="s">
+      <c r="R27" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="S27" s="4"/>
-      <c r="U27" s="4"/>
+      <c r="T27" s="4"/>
       <c r="V27" s="4"/>
       <c r="W27" s="4"/>
-      <c r="Y27" s="4"/>
-    </row>
-    <row r="28" spans="2:25" x14ac:dyDescent="0.15">
+      <c r="X27" s="4"/>
+      <c r="Z27" s="4"/>
+    </row>
+    <row r="28" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B28" s="2">
         <v>23</v>
       </c>
@@ -2552,8 +2660,8 @@
       <c r="J28" s="15">
         <v>1</v>
       </c>
-      <c r="K28" s="2" t="s">
-        <v>3</v>
+      <c r="K28" s="15" t="s">
+        <v>0</v>
       </c>
       <c r="L28" s="2" t="s">
         <v>3</v>
@@ -2565,21 +2673,24 @@
         <v>3</v>
       </c>
       <c r="O28" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P28" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q28" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="Q28" s="2" t="s">
+      <c r="R28" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="S28" s="4"/>
-      <c r="U28" s="4"/>
+      <c r="T28" s="4"/>
       <c r="V28" s="4"/>
       <c r="W28" s="4"/>
-      <c r="Y28" s="4"/>
-    </row>
-    <row r="29" spans="2:25" x14ac:dyDescent="0.15">
+      <c r="X28" s="4"/>
+      <c r="Z28" s="4"/>
+    </row>
+    <row r="29" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B29" s="2">
         <v>24</v>
       </c>
@@ -2607,8 +2718,8 @@
       <c r="J29" s="15">
         <v>1</v>
       </c>
-      <c r="K29" s="2" t="s">
-        <v>3</v>
+      <c r="K29" s="15" t="s">
+        <v>0</v>
       </c>
       <c r="L29" s="2" t="s">
         <v>3</v>
@@ -2620,21 +2731,24 @@
         <v>3</v>
       </c>
       <c r="O29" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P29" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q29" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="Q29" s="2" t="s">
+      <c r="R29" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="S29" s="4"/>
-      <c r="U29" s="4"/>
+      <c r="T29" s="4"/>
       <c r="V29" s="4"/>
       <c r="W29" s="4"/>
-      <c r="Y29" s="4"/>
-    </row>
-    <row r="30" spans="2:25" x14ac:dyDescent="0.15">
+      <c r="X29" s="4"/>
+      <c r="Z29" s="4"/>
+    </row>
+    <row r="30" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B30" s="2">
         <v>25</v>
       </c>
@@ -2662,8 +2776,8 @@
       <c r="J30" s="15">
         <v>1</v>
       </c>
-      <c r="K30" s="2" t="s">
-        <v>3</v>
+      <c r="K30" s="15" t="s">
+        <v>0</v>
       </c>
       <c r="L30" s="2" t="s">
         <v>3</v>
@@ -2675,21 +2789,24 @@
         <v>3</v>
       </c>
       <c r="O30" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P30" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q30" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="Q30" s="2" t="s">
+      <c r="R30" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="S30" s="4"/>
-      <c r="U30" s="4"/>
+      <c r="T30" s="4"/>
       <c r="V30" s="4"/>
       <c r="W30" s="4"/>
-      <c r="Y30" s="4"/>
-    </row>
-    <row r="31" spans="2:25" x14ac:dyDescent="0.15">
+      <c r="X30" s="4"/>
+      <c r="Z30" s="4"/>
+    </row>
+    <row r="31" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B31" s="2">
         <v>26</v>
       </c>
@@ -2717,8 +2834,8 @@
       <c r="J31" s="15">
         <v>1</v>
       </c>
-      <c r="K31" s="2" t="s">
-        <v>3</v>
+      <c r="K31" s="15" t="s">
+        <v>0</v>
       </c>
       <c r="L31" s="2" t="s">
         <v>3</v>
@@ -2730,21 +2847,24 @@
         <v>3</v>
       </c>
       <c r="O31" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P31" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q31" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="Q31" s="2" t="s">
+      <c r="R31" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="S31" s="4"/>
-      <c r="U31" s="4"/>
+      <c r="T31" s="4"/>
       <c r="V31" s="4"/>
       <c r="W31" s="4"/>
-      <c r="Y31" s="4"/>
-    </row>
-    <row r="32" spans="2:25" x14ac:dyDescent="0.15">
+      <c r="X31" s="4"/>
+      <c r="Z31" s="4"/>
+    </row>
+    <row r="32" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B32" s="2">
         <v>27</v>
       </c>
@@ -2772,8 +2892,8 @@
       <c r="J32" s="15">
         <v>1</v>
       </c>
-      <c r="K32" s="2" t="s">
-        <v>3</v>
+      <c r="K32" s="15" t="s">
+        <v>0</v>
       </c>
       <c r="L32" s="2" t="s">
         <v>3</v>
@@ -2785,21 +2905,24 @@
         <v>3</v>
       </c>
       <c r="O32" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P32" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q32" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="Q32" s="2" t="s">
+      <c r="R32" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="S32" s="4"/>
-      <c r="U32" s="4"/>
+      <c r="T32" s="4"/>
       <c r="V32" s="4"/>
       <c r="W32" s="4"/>
-      <c r="Y32" s="4"/>
-    </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.15">
+      <c r="X32" s="4"/>
+      <c r="Z32" s="4"/>
+    </row>
+    <row r="33" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B33" s="2">
         <v>28</v>
       </c>
@@ -2827,8 +2950,8 @@
       <c r="J33" s="15">
         <v>1</v>
       </c>
-      <c r="K33" s="2" t="s">
-        <v>3</v>
+      <c r="K33" s="15" t="s">
+        <v>0</v>
       </c>
       <c r="L33" s="2" t="s">
         <v>3</v>
@@ -2840,21 +2963,24 @@
         <v>3</v>
       </c>
       <c r="O33" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P33" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q33" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="Q33" s="2" t="s">
+      <c r="R33" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="S33" s="4"/>
-      <c r="U33" s="4"/>
+      <c r="T33" s="4"/>
       <c r="V33" s="4"/>
       <c r="W33" s="4"/>
-      <c r="Y33" s="4"/>
-    </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.15">
+      <c r="X33" s="4"/>
+      <c r="Z33" s="4"/>
+    </row>
+    <row r="34" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B34" s="2">
         <v>29</v>
       </c>
@@ -2882,8 +3008,8 @@
       <c r="J34" s="15">
         <v>1</v>
       </c>
-      <c r="K34" s="2" t="s">
-        <v>3</v>
+      <c r="K34" s="15" t="s">
+        <v>0</v>
       </c>
       <c r="L34" s="2" t="s">
         <v>3</v>
@@ -2895,21 +3021,24 @@
         <v>3</v>
       </c>
       <c r="O34" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P34" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q34" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="Q34" s="2" t="s">
+      <c r="R34" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="S34" s="4"/>
-      <c r="U34" s="4"/>
+      <c r="T34" s="4"/>
       <c r="V34" s="4"/>
       <c r="W34" s="4"/>
-      <c r="Y34" s="4"/>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.15">
+      <c r="X34" s="4"/>
+      <c r="Z34" s="4"/>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B35" s="2">
         <v>30</v>
       </c>
@@ -2937,8 +3066,8 @@
       <c r="J35" s="15">
         <v>1</v>
       </c>
-      <c r="K35" s="2" t="s">
-        <v>3</v>
+      <c r="K35" s="15" t="s">
+        <v>0</v>
       </c>
       <c r="L35" s="2" t="s">
         <v>3</v>
@@ -2950,21 +3079,24 @@
         <v>3</v>
       </c>
       <c r="O35" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P35" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q35" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="Q35" s="2" t="s">
+      <c r="R35" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="S35" s="4"/>
-      <c r="U35" s="4"/>
+      <c r="T35" s="4"/>
       <c r="V35" s="4"/>
       <c r="W35" s="4"/>
-      <c r="Y35" s="4"/>
-    </row>
-    <row r="36" spans="2:25" x14ac:dyDescent="0.15">
+      <c r="X35" s="4"/>
+      <c r="Z35" s="4"/>
+    </row>
+    <row r="36" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B36" s="2">
         <v>31</v>
       </c>
@@ -2992,8 +3124,8 @@
       <c r="J36" s="15">
         <v>1</v>
       </c>
-      <c r="K36" s="2" t="s">
-        <v>3</v>
+      <c r="K36" s="15" t="s">
+        <v>0</v>
       </c>
       <c r="L36" s="2" t="s">
         <v>3</v>
@@ -3005,108 +3137,120 @@
         <v>3</v>
       </c>
       <c r="O36" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P36" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q36" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="Q36" s="2" t="s">
+      <c r="R36" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="S36" s="4"/>
-      <c r="U36" s="4"/>
+      <c r="T36" s="4"/>
       <c r="V36" s="4"/>
       <c r="W36" s="4"/>
-      <c r="Y36" s="4"/>
-    </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.15">
+      <c r="X36" s="4"/>
+      <c r="Z36" s="4"/>
+    </row>
+    <row r="37" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B37" s="4"/>
-      <c r="Q37" s="4"/>
-      <c r="S37" s="4"/>
-      <c r="U37" s="4"/>
+      <c r="R37" s="4"/>
+      <c r="T37" s="4"/>
       <c r="V37" s="4"/>
       <c r="W37" s="4"/>
-      <c r="Y37" s="4"/>
-    </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.15">
+      <c r="X37" s="4"/>
+      <c r="Z37" s="4"/>
+    </row>
+    <row r="38" spans="2:26" x14ac:dyDescent="0.25">
       <c r="J38" s="6"/>
-      <c r="Q38" s="4"/>
-      <c r="S38" s="4"/>
-      <c r="U38" s="4"/>
+      <c r="K38" s="6"/>
+      <c r="R38" s="4"/>
+      <c r="T38" s="4"/>
       <c r="V38" s="4"/>
       <c r="W38" s="4"/>
-      <c r="Y38" s="4"/>
-    </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.15">
+      <c r="X38" s="4"/>
+      <c r="Z38" s="4"/>
+    </row>
+    <row r="39" spans="2:26" x14ac:dyDescent="0.25">
       <c r="J39" s="6"/>
-      <c r="Q39" s="4"/>
-      <c r="S39" s="4"/>
-      <c r="U39" s="4"/>
+      <c r="K39" s="6"/>
+      <c r="R39" s="4"/>
+      <c r="T39" s="4"/>
       <c r="V39" s="4"/>
       <c r="W39" s="4"/>
-      <c r="Y39" s="4"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.15">
+      <c r="X39" s="4"/>
+      <c r="Z39" s="4"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.25">
       <c r="J40" s="6"/>
-      <c r="Q40" s="4"/>
-      <c r="S40" s="4"/>
-      <c r="U40" s="4"/>
+      <c r="K40" s="6"/>
+      <c r="R40" s="4"/>
+      <c r="T40" s="4"/>
       <c r="V40" s="4"/>
       <c r="W40" s="4"/>
-      <c r="Y40" s="4"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.15">
+      <c r="X40" s="4"/>
+      <c r="Z40" s="4"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.25">
       <c r="J41" s="6"/>
-      <c r="Q41" s="4"/>
-      <c r="S41" s="4"/>
-      <c r="U41" s="4"/>
+      <c r="K41" s="6"/>
+      <c r="R41" s="4"/>
+      <c r="T41" s="4"/>
       <c r="V41" s="4"/>
       <c r="W41" s="4"/>
-      <c r="Y41" s="4"/>
-    </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.15">
+      <c r="X41" s="4"/>
+      <c r="Z41" s="4"/>
+    </row>
+    <row r="42" spans="2:26" x14ac:dyDescent="0.25">
       <c r="J42" s="6"/>
-      <c r="Q42" s="4"/>
-      <c r="S42" s="4"/>
-      <c r="U42" s="4"/>
+      <c r="K42" s="6"/>
+      <c r="R42" s="4"/>
+      <c r="T42" s="4"/>
       <c r="V42" s="4"/>
       <c r="W42" s="4"/>
-      <c r="Y42" s="4"/>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.15">
+      <c r="X42" s="4"/>
+      <c r="Z42" s="4"/>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.25">
       <c r="J43" s="6"/>
-      <c r="Q43" s="4"/>
-      <c r="S43" s="4"/>
-      <c r="U43" s="4"/>
+      <c r="K43" s="6"/>
+      <c r="R43" s="4"/>
+      <c r="T43" s="4"/>
       <c r="V43" s="4"/>
       <c r="W43" s="4"/>
-      <c r="Y43" s="4"/>
-    </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.15">
+      <c r="X43" s="4"/>
+      <c r="Z43" s="4"/>
+    </row>
+    <row r="44" spans="2:26" x14ac:dyDescent="0.25">
       <c r="J44" s="6"/>
-      <c r="Q44" s="4"/>
-      <c r="S44" s="4"/>
-      <c r="U44" s="4"/>
+      <c r="K44" s="6"/>
+      <c r="R44" s="4"/>
+      <c r="T44" s="4"/>
       <c r="V44" s="4"/>
       <c r="W44" s="4"/>
-      <c r="Y44" s="4"/>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.15">
+      <c r="X44" s="4"/>
+      <c r="Z44" s="4"/>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.25">
       <c r="J45" s="6"/>
-      <c r="Q45" s="4"/>
-      <c r="S45" s="4"/>
-      <c r="U45" s="4"/>
+      <c r="K45" s="6"/>
+      <c r="R45" s="4"/>
+      <c r="T45" s="4"/>
       <c r="V45" s="4"/>
       <c r="W45" s="4"/>
-      <c r="Y45" s="4"/>
-    </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.15">
+      <c r="X45" s="4"/>
+      <c r="Z45" s="4"/>
+    </row>
+    <row r="46" spans="2:26" x14ac:dyDescent="0.25">
       <c r="J46" s="6"/>
-      <c r="Q46" s="4"/>
-      <c r="S46" s="4"/>
-      <c r="U46" s="4"/>
-      <c r="W46" s="4"/>
-      <c r="Y46" s="4"/>
+      <c r="K46" s="6"/>
+      <c r="R46" s="4"/>
+      <c r="T46" s="4"/>
+      <c r="V46" s="4"/>
+      <c r="X46" s="4"/>
+      <c r="Z46" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
